--- a/KIHBS_pilot_checks.xlsx
+++ b/KIHBS_pilot_checks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://worldbankgroup-my.sharepoint.com/personal/kmcgee_worldbank_org/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://worldbankgroup-my.sharepoint.com/personal/eclemente_worldbank_org/Documents/Countries/Kenya/KEN_KIHBS_2024_pilot/Do/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="17" documentId="8_{448735E7-60A9-4118-BCB9-93763A0C2F28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{27ADB29E-E725-4832-922A-0BB7DA066C00}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BF6572EB-D6B5-405C-8AC4-28E3AF1C99AA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{BF6572EB-D6B5-405C-8AC4-28E3AF1C99AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Filters" sheetId="1" r:id="rId1"/>
@@ -231,9 +231,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -271,7 +271,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -377,7 +377,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -519,7 +519,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -530,17 +530,17 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="55.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="55.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>37</v>
       </c>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -562,7 +562,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -573,7 +573,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -584,7 +584,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
@@ -595,7 +595,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -606,7 +606,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>27</v>
       </c>
@@ -617,7 +617,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
@@ -628,7 +628,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>34</v>
       </c>
@@ -653,13 +653,13 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="129.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="129.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -670,7 +670,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -681,7 +681,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -692,7 +692,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>19</v>
       </c>
